--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3539373.313971227</v>
+        <v>3536996.687023861</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7838134.500984096</v>
+        <v>7838134.500984095</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2058693932639</v>
+        <v>35.9524543521427</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.3928413252375</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.30830983498245</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,13 +871,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>224.7543248662174</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882148</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959209</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>211.4496987473644</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.00012391065526</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138459</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505692</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>25.52471385612724</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15319674220954</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>7.613741235236319</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>-1.158000898236611e-13</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412203</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187896</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187899</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>1.158000898236612e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.158000898236612e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730615</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>1.158000898236612e-13</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.158000898236612e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883582</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.6665353554979</v>
+        <v>880.6454412161688</v>
       </c>
       <c r="C2" t="n">
-        <v>565.7040184150862</v>
+        <v>880.6454412161688</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4383198083357</v>
+        <v>880.6454412161688</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.26637541962</v>
+        <v>880.6454412161688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1565.661695681275</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3634259803388</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>276.110331901121</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>276.110331901121</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>276.110331901121</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>276.110331901121</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>108.1238672093995</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387889</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>570.1538267018284</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>342.1642758038111</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y4" t="n">
-        <v>342.1642758038111</v>
+        <v>445.0465148290278</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1802.273730074954</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1433.311213134542</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.045514527792</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E5" t="n">
-        <v>689.2572619295474</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>278.2713571399399</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139076</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>444.7476822882295</v>
       </c>
       <c r="C7" t="n">
-        <v>837.079342274803</v>
+        <v>275.8114993603226</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624673</v>
+        <v>275.8114993603226</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800742</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821638</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904424</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394854</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232074</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>672.7372331862468</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>444.7476822882295</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>444.7476822882295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.8611267254487</v>
+        <v>1416.181083656477</v>
       </c>
       <c r="C8" t="n">
-        <v>864.8611267254487</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>864.8611267254487</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0728741272044</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005982</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926591</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1416.181083656477</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1416.181083656477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.46096678957</v>
+        <v>1416.181083656477</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495381</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>453.687830541773</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>453.687830541773</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>232.8952513982429</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400738</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121672</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121673</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314257</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314257</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219835</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>282.1478848544703</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4360536966684</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,10 +5738,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836044</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556976</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.593357543362</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.593357543362</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454517</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603318</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.294644713844</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711967</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711967</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908936</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6862,10 +6862,10 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>697.5276345711967</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014783</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168645</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014783</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138396</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859326</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735967</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912035</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912034</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060832</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>140.4207983482812</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138397</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706079</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427009</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.7297566303651</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.223622944378</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008478</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883069234</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282429</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>129.7511347056858</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711668</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>191.880736471161</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>132.6809716109875</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310874385</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.1277423712595</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823287</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>691809.1007194668</v>
+        <v>691809.1007194667</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132557</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.604713255</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731967</v>
+        <v>8117.31242673216</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731971</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426732</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
+        <v>8117.312426732021</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426732078</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="L4" t="n">
-        <v>8117.312426731999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731945</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731838</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731888</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731936</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26503,7 +26503,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-582543.9191531654</v>
+        <v>-582543.9191531662</v>
       </c>
       <c r="C6" t="n">
-        <v>532207.8644227539</v>
+        <v>532207.8644227544</v>
       </c>
       <c r="D6" t="n">
-        <v>532207.8644227539</v>
+        <v>532207.8644227538</v>
       </c>
       <c r="E6" t="n">
-        <v>129885.3208380703</v>
+        <v>129850.5829126353</v>
       </c>
       <c r="F6" t="n">
-        <v>637370.7624626167</v>
+        <v>637336.024537181</v>
       </c>
       <c r="G6" t="n">
-        <v>637370.7624626161</v>
+        <v>637336.0245371809</v>
       </c>
       <c r="H6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371807</v>
       </c>
       <c r="I6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371807</v>
       </c>
       <c r="J6" t="n">
-        <v>469765.5846526336</v>
+        <v>469730.8467271978</v>
       </c>
       <c r="K6" t="n">
-        <v>637370.7624626163</v>
+        <v>637336.0245371803</v>
       </c>
       <c r="L6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371807</v>
       </c>
       <c r="M6" t="n">
-        <v>504763.4687336898</v>
+        <v>504728.730808254</v>
       </c>
       <c r="N6" t="n">
-        <v>637370.7624626165</v>
+        <v>637336.0245371801</v>
       </c>
       <c r="O6" t="n">
-        <v>637370.7624626162</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="P6" t="n">
-        <v>637370.7624626163</v>
+        <v>637336.0245371807</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>245.7245006789979</v>
+        <v>345.9779157201191</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.4391388566998</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>90.94319932014639</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>186.7933779067366</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902542</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697708</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>153.8231930236432</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>394.8759218310562</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227451</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.240074875066056e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29512,22 +29512,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.158000898236611e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.012701199622825e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.345330748369821e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.158000898236609e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.84640711626</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>528.793290850004</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660932</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>520.9482342985597</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839569</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010452</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462728</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>386.6592569279858</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902988</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
